--- a/src/main/java/com/lco/qa/testdata/LCO_TestData.xlsx
+++ b/src/main/java/com/lco/qa/testdata/LCO_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="152">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -56,333 +56,342 @@
     <t xml:space="preserve">Text</t>
   </si>
   <si>
+    <t xml:space="preserve">Vijay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tudu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DatePicker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place of Birth (State)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DropDown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Security #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347563874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have a valid driver's license?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver's license #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona (AZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Address (Number, Street, and Apt. #) (No P.O. Box please)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone (HOME/CELL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999-999-9999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone (WORK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vijay@sureify.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is your mailing address different from your home address?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you currently employed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter your occupation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoSugg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employer name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sureify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employer address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address (Number, Street, and Apt.#)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California (CA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you currently disabled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you collected disability benefits in the last two years?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Charitable Giving Rider provides for a donation to an IRS section 501(c)(3) qualified charity of your choosing. Election of the rider is available prior to or at issue only. Selection of this Rider does not change your premium. Do you wish to elect the Charitable Giving Rider?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Owner the same as the Proposed Insured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Payor the same as the Owner?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Proposed Insured have existing life insurance or annuity contracts in force?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Proposed Insured have any applications for life insurance now pending?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you intend to replace, discontinue or change any existing life insurance or annuity contracts on the Proposed Insured with the applied-for policy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed At City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City in issue state where application is signed:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the past three years has the Proposed Insured or does the Proposed Insured intend in the next two years:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to pilot an aircraft (other than scheduled commercial or corporate aviation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engage in any of the following: sky sports, underwater sports to a depth of greater than 100 feet, climbing sports greater than 5.0 difficulty, motor sport traveling at speeds (in any type vehicle) in excess of 100 miles per hour or bungee jumping, heli-skiing, hang gliding, sky diving, parachuting, BASE jumping?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the Proposed Insured used tobacco products or products containing nicotine in any form (to include cigarettes, electronic cigarettes, cannabis cigarettes, snuff/chew/dip, cigars, pipes, nicotine patch and nicotine gum) in the past 5 years?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the next 12 months, does the Proposed Insured intend to live or travel outside the U.S or Canada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the last 10 years, has the Proposed Insured:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">been convicted of a felony; convicted of a misdemeanor; or is the Proposed Insured currently on parole or incarcerated in a correctional institution?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">been convicted of operating a vehicle while under the influence of alcohol or drugs; or does the Proposed Insured currently have a revoked or suspended license?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the last three years, has the Proposed Insured plead guilty or been convicted of three or more moving violations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current height (ft/in)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height (ft)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height (in)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight [lbs]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has your weight changed more than 10 pounds within the past year?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the Proposed Insured currently confined to a hospital, nursing home, psychiatric facility or currently receiving home health care/assisted living care?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the Proposed Insured ever been declined, postponed, or offered rated life or health insurance or been denied a reinstatement, reissue or renewal for life or health insurance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the past ten years, have you been diagnosed with or treated by a licensed member of the medical profession for any of the following?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disease of heart, blood vessels, high blood pressure, heart murmur, coronary artery disease, chest pain, palpitation or other abnormal heart rate or rhythm, or heart attack?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disease or disorder of lungs, nose, sinus or throat, including asthma, tuberculosis, emphysema, chronic bronchitis, cough, shortness of breath, or sleep disorder/apnea?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disease or disorder of the pancreas, esophagus, stomach or intestinal tract including abdominal pain or internal bleeding, ulcer or jaundice?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disease of kidney, urinary bladder, liver or gall bladder, prostate, or protein, blood or sugar in urine?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disease or disorder of the brain or nervous system including headache, dizziness, epilepsy or seizures, paralysis, stroke, depression, anxiety or mental illness?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes, thyroid condition or other glandular disorder or gout?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disorder of the skin, lymph glands, muscles, bones, joints, arthritis or back disorder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disorder of the eye or ear, or any impaired sight or hearing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumor, cancer, anemia, or blood disorder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquired Immune Deficiency Syndrome (AIDS), AIDS Related Complex (ARC) or AIDS related conditions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the Proposed Insured ever:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Been treated or counseled for alcoholism, alcohol abuse or addiction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used amphetamines, heroin, narcotics, barbiturates, cocaine, hallucinogens, cannabis or any drugs except prescribed by a physician?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a positive result on a Human Immunodeficiency Virus (HIV) test administered by a member of the medical profession?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other than the above, is the Proposed Insured now under observation or receiving treatment or counseling by a member of the medical profession?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Proposed Insured have a regular personal physician?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has a biological parent or sibling of the Proposed Insured died or been diagnosed or treated by a licensed member of the medical profession with heart disease, stroke, or cancer prior to the age of 60?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficiaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary beneficiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary beneficiary 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationship to Proposed Insured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficiary Social Security Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Telephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address (Number, Street)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contingent beneficiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id":"TermLife","label":"Level Term Life"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id":"TenYearTerm","label":"10 Year Level"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"id":"IncomeReplacement","label":"Income Replacement"}]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yughander</t>
   </si>
   <si>
-    <t xml:space="preserve">Middle Initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Akkunuru</t>
   </si>
   <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DatePicker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place of Birth (State)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DropDown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arizona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social Security #</t>
+    <t xml:space="preserve">{"id":"Male","label":"Male"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id":"ArizonaAZ","label":"Arizona (AZ)"}</t>
   </si>
   <si>
     <t xml:space="preserve">347-56-3874</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you have a valid driver's license?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver's license #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State of issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arizona (AZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampleTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Address (Number, Street, and Apt. #) (No P.O. Box please)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San jose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone (HOME/CELL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999-999-9999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone (WORK)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vijay@sureify.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is your mailing address different from your home address?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you currently employed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter your occupation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoSugg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annual Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employer name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sureify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employer address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address (Number, Street, and Apt.#)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California (CA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you currently disabled?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you collected disability benefits in the last two years?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Charitable Giving Rider provides for a donation to an IRS section 501(c)(3) qualified charity of your choosing. Election of the rider is available prior to or at issue only. Selection of this Rider does not change your premium. Do you wish to elect the Charitable Giving Rider?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Owner the same as the Proposed Insured?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Payor the same as the Owner?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the Proposed Insured have existing life insurance or annuity contracts in force?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the Proposed Insured have any applications for life insurance now pending?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you intend to replace, discontinue or change any existing life insurance or annuity contracts on the Proposed Insured with the applied-for policy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signed At City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City in issue state where application is signed:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the past three years has the Proposed Insured or does the Proposed Insured intend in the next two years:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to pilot an aircraft (other than scheduled commercial or corporate aviation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">engage in any of the following: sky sports, underwater sports to a depth of greater than 100 feet, climbing sports greater than 5.0 difficulty, motor sport traveling at speeds (in any type vehicle) in excess of 100 miles per hour or bungee jumping, heli-skiing, hang gliding, sky diving, parachuting, BASE jumping?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has the Proposed Insured used tobacco products or products containing nicotine in any form (to include cigarettes, electronic cigarettes, cannabis cigarettes, snuff/chew/dip, cigars, pipes, nicotine patch and nicotine gum) in the past 5 years?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the next 12 months, does the Proposed Insured intend to live or travel outside the U.S or Canada?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the last 10 years, has the Proposed Insured:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">been convicted of a felony; convicted of a misdemeanor; or is the Proposed Insured currently on parole or incarcerated in a correctional institution?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">been convicted of operating a vehicle while under the influence of alcohol or drugs; or does the Proposed Insured currently have a revoked or suspended license?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the last three years, has the Proposed Insured plead guilty or been convicted of three or more moving violations?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current height (ft/in)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">height (ft)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">height (in)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight [lbs]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has your weight changed more than 10 pounds within the past year?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the Proposed Insured currently confined to a hospital, nursing home, psychiatric facility or currently receiving home health care/assisted living care?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has the Proposed Insured ever been declined, postponed, or offered rated life or health insurance or been denied a reinstatement, reissue or renewal for life or health insurance?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the past ten years, have you been diagnosed with or treated by a licensed member of the medical profession for any of the following?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disease of heart, blood vessels, high blood pressure, heart murmur, coronary artery disease, chest pain, palpitation or other abnormal heart rate or rhythm, or heart attack?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disease or disorder of lungs, nose, sinus or throat, including asthma, tuberculosis, emphysema, chronic bronchitis, cough, shortness of breath, or sleep disorder/apnea?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disease or disorder of the pancreas, esophagus, stomach or intestinal tract including abdominal pain or internal bleeding, ulcer or jaundice?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disease of kidney, urinary bladder, liver or gall bladder, prostate, or protein, blood or sugar in urine?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disease or disorder of the brain or nervous system including headache, dizziness, epilepsy or seizures, paralysis, stroke, depression, anxiety or mental illness?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes, thyroid condition or other glandular disorder or gout?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disorder of the skin, lymph glands, muscles, bones, joints, arthritis or back disorder?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disorder of the eye or ear, or any impaired sight or hearing?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tumor, cancer, anemia, or blood disorder?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquired Immune Deficiency Syndrome (AIDS), AIDS Related Complex (ARC) or AIDS related conditions?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has the Proposed Insured ever:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Been treated or counseled for alcoholism, alcohol abuse or addiction?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used amphetamines, heroin, narcotics, barbiturates, cocaine, hallucinogens, cannabis or any drugs except prescribed by a physician?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Had a positive result on a Human Immunodeficiency Virus (HIV) test administered by a member of the medical profession?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other than the above, is the Proposed Insured now under observation or receiving treatment or counseling by a member of the medical profession?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the Proposed Insured have a regular personal physician?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has a biological parent or sibling of the Proposed Insured died or been diagnosed or treated by a licensed member of the medical profession with heart disease, stroke, or cancer prior to the age of 60?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beneficiaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary beneficiary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary beneficiary 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relationship to Proposed Insured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beneficiary Social Security Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Telephone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address (Number, Street)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contingent beneficiary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answer State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"id":"TermLife","label":"Level Term Life"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"id":"TenYearTerm","label":"10 Year Level"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[{"id":"IncomeReplacement","label":"Income Replacement"}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"id":"Male","label":"Male"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"id":"ArizonaAZ","label":"Arizona (AZ)"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">{"id":"Yes","label":"Yes"}</t>
   </si>
   <si>
@@ -404,9 +413,6 @@
     <t xml:space="preserve">[{"id":"PrimaryBeneficiary1","label":"primary beneficiary 1","inferred":false,"addedBySearchVariable":true,"category":"Personal"}]</t>
   </si>
   <si>
-    <t xml:space="preserve">Vijay</t>
-  </si>
-  <si>
     <t xml:space="preserve">{"id":"BrotherRelation","label":"Brother"}</t>
   </si>
   <si>
@@ -428,19 +434,22 @@
     <t xml:space="preserve">State_code</t>
   </si>
   <si>
+    <t xml:space="preserve">Ajay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.01.1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.01.1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alaska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AK</t>
   </si>
   <si>
     <t xml:space="preserve">searchString</t>
@@ -488,7 +497,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -510,13 +518,11 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -580,7 +586,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -619,6 +625,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -708,8 +718,8 @@
   </sheetPr>
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C:C"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -767,7 +777,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -789,7 +799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -833,7 +843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -895,7 +905,7 @@
       <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="10" t="n">
         <v>4637</v>
       </c>
     </row>
@@ -928,7 +938,7 @@
       <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="10" t="n">
         <v>95125</v>
       </c>
     </row>
@@ -994,7 +1004,7 @@
       <c r="A28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="8"/>
@@ -1035,7 +1045,7 @@
       <c r="B32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="10" t="n">
         <v>3465</v>
       </c>
     </row>
@@ -1068,7 +1078,7 @@
       <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="8" t="n">
+      <c r="C35" s="10" t="n">
         <v>95125</v>
       </c>
     </row>
@@ -1696,7 +1706,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1797,10 +1807,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,10 +1841,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,10 +1874,10 @@
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="12" t="n">
         <v>32092</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="12" t="n">
         <v>32092</v>
       </c>
     </row>
@@ -1885,7 +1895,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,10 +1909,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,7 +1929,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,12 +1963,12 @@
         <v>29</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>113</v>
@@ -1970,7 +1980,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2021,7 +2031,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,7 +2073,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2100,7 +2110,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,7 +2127,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2136,12 +2146,12 @@
       <c r="B28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,7 +2247,7 @@
         <v>52</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,7 +2281,7 @@
         <v>42</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,7 +2298,7 @@
         <v>42</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,7 +2315,7 @@
         <v>42</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,7 +2349,7 @@
         <v>26</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,7 +2366,7 @@
         <v>42</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,7 +2383,7 @@
         <v>42</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,7 +2400,7 @@
         <v>42</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,7 +2461,7 @@
         <v>42</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,7 +2478,7 @@
         <v>42</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +2495,7 @@
         <v>42</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,7 +2512,7 @@
         <v>42</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,7 +2542,7 @@
         <v>42</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,7 +2559,7 @@
         <v>42</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,7 +2576,7 @@
         <v>42</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,7 +2664,7 @@
         <v>42</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,7 +2681,7 @@
         <v>42</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,7 +2698,7 @@
         <v>42</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,7 +2715,7 @@
         <v>42</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2722,7 +2732,7 @@
         <v>42</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,7 +2749,7 @@
         <v>42</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2756,7 +2766,7 @@
         <v>42</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,7 +2783,7 @@
         <v>42</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,7 +2800,7 @@
         <v>42</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,7 +2817,7 @@
         <v>42</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,7 +2834,7 @@
         <v>42</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,7 +2851,7 @@
         <v>42</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,7 +2868,7 @@
         <v>42</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,7 +2885,7 @@
         <v>42</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,7 +2915,7 @@
         <v>42</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2922,7 +2932,7 @@
         <v>42</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,7 +2949,7 @@
         <v>42</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,7 +2966,7 @@
         <v>42</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,7 +2983,7 @@
         <v>42</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,7 +3000,7 @@
         <v>42</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3012,7 +3022,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3036,7 +3046,7 @@
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,7 +3061,7 @@
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,7 +3091,7 @@
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,7 +3103,7 @@
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="11" t="n">
+      <c r="E89" s="12" t="n">
         <v>32092</v>
       </c>
     </row>
@@ -3102,7 +3112,7 @@
         <v>106</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3113,7 +3123,7 @@
         <v>107</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3124,7 +3134,7 @@
         <v>32</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3135,7 +3145,7 @@
         <v>34</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3146,7 +3156,7 @@
         <v>35</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3157,7 +3167,7 @@
         <v>108</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3207,7 +3217,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="C:C B9"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3223,10 +3233,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>15</v>
@@ -3235,36 +3245,36 @@
         <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3296,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C:C A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3301,10 +3311,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>15</v>
@@ -3313,36 +3323,36 @@
         <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3364,7 +3374,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="C:C A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3376,45 +3386,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/lco/qa/testdata/LCO_TestData.xlsx
+++ b/src/main/java/com/lco/qa/testdata/LCO_TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="156">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -113,6 +113,9 @@
     <t xml:space="preserve">Driver's license #</t>
   </si>
   <si>
+    <t xml:space="preserve">111111111</t>
+  </si>
+  <si>
     <t xml:space="preserve">State of issue</t>
   </si>
   <si>
@@ -189,9 +192,6 @@
   </si>
   <si>
     <t xml:space="preserve">California (CA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stop</t>
   </si>
   <si>
     <t xml:space="preserve">Are you currently disabled?</t>
@@ -749,14 +749,14 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="1022" min="4" style="1" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="11.246963562753"/>
   </cols>
@@ -911,33 +911,33 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="10" t="n">
-        <v>753475837</v>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>17</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>10</v>
@@ -961,31 +961,31 @@
     </row>
     <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>10</v>
@@ -997,19 +997,19 @@
     </row>
     <row r="22" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -1017,31 +1017,31 @@
     </row>
     <row r="24" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>17</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -1061,19 +1061,19 @@
     </row>
     <row r="28" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>10</v>
@@ -1085,31 +1085,31 @@
     </row>
     <row r="30" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>10</v>
@@ -1121,33 +1121,31 @@
     </row>
     <row r="33" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="11" t="s">
         <v>55</v>
       </c>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>10</v>
@@ -1165,7 +1163,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" s="11"/>
     </row>
@@ -1177,7 +1175,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="11"/>
     </row>
@@ -1189,7 +1187,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D38" s="11"/>
     </row>
@@ -1225,7 +1223,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41" s="11"/>
     </row>
@@ -1237,7 +1235,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" s="11"/>
     </row>
@@ -1249,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D43" s="11"/>
     </row>
@@ -1261,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" s="11"/>
     </row>
@@ -1273,7 +1271,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" s="11"/>
     </row>
@@ -1289,8 +1287,12 @@
       <c r="A47" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
+      <c r="B47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="D47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,7 +1303,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D48" s="11"/>
     </row>
@@ -1313,7 +1315,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" s="11"/>
     </row>
@@ -1325,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D50" s="11"/>
     </row>
@@ -1337,7 +1339,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D51" s="11"/>
     </row>
@@ -1349,7 +1351,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D52" s="11"/>
     </row>
@@ -1361,7 +1363,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D53" s="11"/>
     </row>
@@ -1373,7 +1375,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D54" s="11"/>
     </row>
@@ -1385,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D55" s="11"/>
     </row>
@@ -1449,7 +1451,7 @@
         <v>17</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D61" s="11"/>
     </row>
@@ -1461,7 +1463,7 @@
         <v>17</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D62" s="11"/>
     </row>
@@ -1473,7 +1475,7 @@
         <v>17</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D63" s="11"/>
     </row>
@@ -1485,7 +1487,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D64" s="11"/>
     </row>
@@ -1497,7 +1499,7 @@
         <v>17</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D65" s="11"/>
     </row>
@@ -1509,7 +1511,7 @@
         <v>17</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D66" s="11"/>
     </row>
@@ -1521,7 +1523,7 @@
         <v>17</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D67" s="11"/>
     </row>
@@ -1533,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D68" s="11"/>
     </row>
@@ -1545,7 +1547,7 @@
         <v>17</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D69" s="11"/>
     </row>
@@ -1557,7 +1559,7 @@
         <v>17</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D70" s="11"/>
     </row>
@@ -1569,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D71" s="11"/>
     </row>
@@ -1581,7 +1583,7 @@
         <v>17</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D72" s="11"/>
     </row>
@@ -1593,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D73" s="11"/>
     </row>
@@ -1605,7 +1607,7 @@
         <v>17</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D74" s="11"/>
     </row>
@@ -1617,7 +1619,7 @@
         <v>17</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D75" s="11"/>
     </row>
@@ -1629,7 +1631,7 @@
         <v>17</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D76" s="11"/>
     </row>
@@ -1641,7 +1643,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D77" s="11"/>
     </row>
@@ -1653,7 +1655,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D78" s="11"/>
     </row>
@@ -1665,7 +1667,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D79" s="11"/>
     </row>
@@ -1677,7 +1679,7 @@
         <v>17</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D80" s="11"/>
     </row>
@@ -1689,7 +1691,7 @@
         <v>17</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D81" s="11"/>
     </row>
@@ -1853,10 +1855,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.246963562753"/>
   </cols>
   <sheetData>
@@ -2093,7 +2095,7 @@
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>116</v>
@@ -2102,7 +2104,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>123</v>
@@ -2127,7 +2129,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>116</v>
@@ -2144,7 +2146,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>116</v>
@@ -2153,15 +2155,15 @@
         <v>10</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>116</v>
@@ -2170,7 +2172,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>123</v>
@@ -2178,7 +2180,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>116</v>
@@ -2195,7 +2197,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>116</v>
@@ -2212,7 +2214,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>128</v>
@@ -2223,7 +2225,7 @@
     </row>
     <row r="24" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>116</v>
@@ -2232,15 +2234,15 @@
         <v>10</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>116</v>
@@ -2249,7 +2251,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>129</v>
@@ -2257,7 +2259,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>116</v>
@@ -2274,7 +2276,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2283,13 +2285,13 @@
     </row>
     <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
@@ -2298,7 +2300,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>116</v>
@@ -2315,7 +2317,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>116</v>
@@ -2324,15 +2326,15 @@
         <v>10</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>116</v>
@@ -2343,7 +2345,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>116</v>
@@ -2360,7 +2362,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>116</v>
@@ -2369,15 +2371,15 @@
         <v>10</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>116</v>
@@ -2386,7 +2388,7 @@
         <v>22</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>131</v>
@@ -2394,7 +2396,7 @@
     </row>
     <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>116</v>
@@ -2420,7 +2422,7 @@
         <v>17</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>129</v>
@@ -2437,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>129</v>
@@ -2454,7 +2456,7 @@
         <v>17</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>129</v>
@@ -2505,7 +2507,7 @@
         <v>17</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>129</v>
@@ -2522,7 +2524,7 @@
         <v>17</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>129</v>
@@ -2539,7 +2541,7 @@
         <v>17</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>129</v>
@@ -2565,10 +2567,10 @@
         <v>10</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,7 +2602,7 @@
         <v>17</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>129</v>
@@ -2617,7 +2619,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>129</v>
@@ -2634,7 +2636,7 @@
         <v>17</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>129</v>
@@ -2651,7 +2653,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>129</v>
@@ -2666,7 +2668,7 @@
         <v>17</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E52" s="9"/>
     </row>
@@ -2681,7 +2683,7 @@
         <v>17</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>129</v>
@@ -2698,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>129</v>
@@ -2715,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>129</v>
@@ -2803,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>129</v>
@@ -2820,7 +2822,7 @@
         <v>17</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>129</v>
@@ -2837,7 +2839,7 @@
         <v>17</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>129</v>
@@ -2854,7 +2856,7 @@
         <v>17</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>129</v>
@@ -2871,7 +2873,7 @@
         <v>17</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>129</v>
@@ -2888,7 +2890,7 @@
         <v>17</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>129</v>
@@ -2905,7 +2907,7 @@
         <v>17</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>129</v>
@@ -2922,7 +2924,7 @@
         <v>17</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>129</v>
@@ -2939,7 +2941,7 @@
         <v>17</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>129</v>
@@ -2956,7 +2958,7 @@
         <v>17</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>129</v>
@@ -2973,7 +2975,7 @@
         <v>17</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>129</v>
@@ -2990,7 +2992,7 @@
         <v>17</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>129</v>
@@ -3007,7 +3009,7 @@
         <v>17</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>129</v>
@@ -3024,7 +3026,7 @@
         <v>17</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>129</v>
@@ -3039,7 +3041,7 @@
         <v>17</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E75" s="9"/>
     </row>
@@ -3054,7 +3056,7 @@
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>129</v>
@@ -3071,7 +3073,7 @@
         <v>17</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>129</v>
@@ -3088,7 +3090,7 @@
         <v>17</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>129</v>
@@ -3105,7 +3107,7 @@
         <v>17</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>129</v>
@@ -3122,7 +3124,7 @@
         <v>17</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>129</v>
@@ -3139,7 +3141,7 @@
         <v>17</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>129</v>
@@ -3273,7 +3275,7 @@
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>128</v>
@@ -3284,7 +3286,7 @@
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>128</v>
@@ -3295,7 +3297,7 @@
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>128</v>
@@ -3365,10 +3367,10 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.3117408906883"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
@@ -3384,7 +3386,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>137</v>
@@ -3444,10 +3446,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3462,7 +3464,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>137</v>
@@ -3560,7 +3562,7 @@
         <v>153</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>154</v>

--- a/src/main/java/com/lco/qa/testdata/LCO_TestData.xlsx
+++ b/src/main/java/com/lco/qa/testdata/LCO_TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="156">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -509,7 +509,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -531,13 +530,11 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -608,7 +605,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -663,6 +660,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -748,8 +749,8 @@
   </sheetPr>
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1011,8 +1012,12 @@
       <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="D23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,7 +1437,7 @@
       <c r="D59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -1763,7 +1768,9 @@
       <c r="A89" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B89" s="9"/>
+      <c r="B89" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="C89" s="10"/>
       <c r="D89" s="11"/>
     </row>
@@ -1850,7 +1857,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="E28" activeCellId="1" sqref="B23:C23 E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2018,10 +2025,10 @@
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="15" t="n">
         <v>32092</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="15" t="n">
         <v>32092</v>
       </c>
     </row>
@@ -3247,7 +3254,7 @@
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="14" t="n">
+      <c r="E89" s="15" t="n">
         <v>32092</v>
       </c>
     </row>
@@ -3361,7 +3368,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B23:C23 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3440,7 +3447,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B23:C23 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3518,7 +3525,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="B23:C23 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/src/main/java/com/lco/qa/testdata/LCO_TestData.xlsx
+++ b/src/main/java/com/lco/qa/testdata/LCO_TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="157">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t xml:space="preserve">Weight [lbs]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
   </si>
   <si>
     <t xml:space="preserve">Has your weight changed more than 10 pounds within the past year?</t>
@@ -509,6 +512,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -530,11 +534,13 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -749,15 +755,15 @@
   </sheetPr>
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23:C23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="1022" min="4" style="1" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="11.246963562753"/>
   </cols>
@@ -840,7 +846,7 @@
       </c>
       <c r="D8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -1436,12 +1442,12 @@
       </c>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C60" s="10" t="n">
         <v>180</v>
@@ -1450,7 +1456,7 @@
     </row>
     <row r="61" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>17</v>
@@ -1462,7 +1468,7 @@
     </row>
     <row r="62" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>17</v>
@@ -1474,7 +1480,7 @@
     </row>
     <row r="63" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>17</v>
@@ -1486,7 +1492,7 @@
     </row>
     <row r="64" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>17</v>
@@ -1498,7 +1504,7 @@
     </row>
     <row r="65" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>17</v>
@@ -1510,7 +1516,7 @@
     </row>
     <row r="66" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>17</v>
@@ -1522,7 +1528,7 @@
     </row>
     <row r="67" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>17</v>
@@ -1534,7 +1540,7 @@
     </row>
     <row r="68" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>17</v>
@@ -1546,7 +1552,7 @@
     </row>
     <row r="69" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>17</v>
@@ -1558,7 +1564,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>17</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="71" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>17</v>
@@ -1582,7 +1588,7 @@
     </row>
     <row r="72" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>17</v>
@@ -1594,7 +1600,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>17</v>
@@ -1606,7 +1612,7 @@
     </row>
     <row r="74" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>17</v>
@@ -1618,7 +1624,7 @@
     </row>
     <row r="75" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>17</v>
@@ -1630,7 +1636,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>17</v>
@@ -1642,7 +1648,7 @@
     </row>
     <row r="77" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>17</v>
@@ -1654,7 +1660,7 @@
     </row>
     <row r="78" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>17</v>
@@ -1666,7 +1672,7 @@
     </row>
     <row r="79" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>17</v>
@@ -1678,7 +1684,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>17</v>
@@ -1690,7 +1696,7 @@
     </row>
     <row r="81" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>17</v>
@@ -1702,7 +1708,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
@@ -1710,7 +1716,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="10"/>
@@ -1718,7 +1724,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
@@ -1726,7 +1732,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>10</v>
@@ -1736,7 +1742,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>22</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="87" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>10</v>
@@ -1756,7 +1762,7 @@
     </row>
     <row r="88" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>10</v>
@@ -1776,7 +1782,7 @@
     </row>
     <row r="90" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
@@ -1784,7 +1790,7 @@
     </row>
     <row r="91" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="10"/>
@@ -1810,7 +1816,7 @@
     </row>
     <row r="95" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
@@ -1818,7 +1824,7 @@
     </row>
     <row r="96" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
@@ -1832,7 +1838,7 @@
     </row>
     <row r="98" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
@@ -1857,15 +1863,15 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="1" sqref="B23:C23 E28"/>
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="68.1295546558705"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.246963562753"/>
   </cols>
   <sheetData>
@@ -1874,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1883,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,12 +1906,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,12 +1919,12 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1932,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1939,12 +1945,12 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,16 +1958,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>10</v>
@@ -1986,16 +1992,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,7 +2009,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>17</v>
@@ -2012,7 +2018,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,7 +2026,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>20</v>
@@ -2037,7 +2043,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>22</v>
@@ -2046,7 +2052,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,16 +2060,16 @@
         <v>24</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,7 +2077,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>17</v>
@@ -2080,7 +2086,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,7 +2094,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>10</v>
@@ -2105,7 +2111,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>22</v>
@@ -2114,15 +2120,15 @@
         <v>31</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>17</v>
@@ -2131,7 +2137,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,7 +2145,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>10</v>
@@ -2156,7 +2162,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>10</v>
@@ -2173,7 +2179,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>22</v>
@@ -2182,7 +2188,7 @@
         <v>31</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,7 +2196,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>10</v>
@@ -2207,16 +2213,16 @@
         <v>38</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,7 +2230,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2235,7 +2241,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>10</v>
@@ -2252,7 +2258,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>17</v>
@@ -2261,7 +2267,7 @@
         <v>44</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,7 +2275,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>17</v>
@@ -2278,7 +2284,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,14 +2301,14 @@
         <v>47</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,7 +2316,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>10</v>
@@ -2327,7 +2333,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>10</v>
@@ -2344,7 +2350,7 @@
         <v>53</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2355,7 +2361,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>10</v>
@@ -2372,7 +2378,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>10</v>
@@ -2389,7 +2395,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>22</v>
@@ -2398,7 +2404,7 @@
         <v>55</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,7 +2412,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>10</v>
@@ -2423,7 +2429,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>17</v>
@@ -2432,7 +2438,7 @@
         <v>44</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,7 +2446,7 @@
         <v>57</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>17</v>
@@ -2449,7 +2455,7 @@
         <v>44</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>17</v>
@@ -2466,7 +2472,7 @@
         <v>44</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,7 +2480,7 @@
         <v>59</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>17</v>
@@ -2483,7 +2489,7 @@
         <v>27</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,7 +2497,7 @@
         <v>60</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>17</v>
@@ -2500,7 +2506,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,7 +2514,7 @@
         <v>61</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>17</v>
@@ -2517,7 +2523,7 @@
         <v>44</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,7 +2531,7 @@
         <v>62</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>17</v>
@@ -2534,7 +2540,7 @@
         <v>44</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,7 +2548,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>17</v>
@@ -2551,7 +2557,7 @@
         <v>44</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,7 +2574,7 @@
         <v>65</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>10</v>
@@ -2603,7 +2609,7 @@
         <v>68</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>17</v>
@@ -2612,7 +2618,7 @@
         <v>44</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,7 +2626,7 @@
         <v>69</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>17</v>
@@ -2629,7 +2635,7 @@
         <v>44</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,7 +2643,7 @@
         <v>70</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>17</v>
@@ -2646,7 +2652,7 @@
         <v>44</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,7 +2660,7 @@
         <v>71</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>17</v>
@@ -2663,7 +2669,7 @@
         <v>44</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,7 +2690,7 @@
         <v>73</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>17</v>
@@ -2693,7 +2699,7 @@
         <v>44</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,7 +2707,7 @@
         <v>74</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>17</v>
@@ -2710,7 +2716,7 @@
         <v>44</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,7 +2724,7 @@
         <v>75</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>17</v>
@@ -2727,7 +2733,7 @@
         <v>44</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,7 +2750,7 @@
         <v>77</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2755,7 +2761,7 @@
         <v>78</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>10</v>
@@ -2772,7 +2778,7 @@
         <v>79</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>10</v>
@@ -2789,7 +2795,7 @@
         <v>80</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>10</v>
@@ -2803,10 +2809,10 @@
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>17</v>
@@ -2815,15 +2821,15 @@
         <v>44</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>17</v>
@@ -2832,15 +2838,15 @@
         <v>44</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>17</v>
@@ -2849,15 +2855,15 @@
         <v>44</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>17</v>
@@ -2866,15 +2872,15 @@
         <v>44</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>17</v>
@@ -2883,15 +2889,15 @@
         <v>44</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>17</v>
@@ -2900,15 +2906,15 @@
         <v>44</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>17</v>
@@ -2917,15 +2923,15 @@
         <v>44</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>17</v>
@@ -2934,15 +2940,15 @@
         <v>44</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>17</v>
@@ -2951,15 +2957,15 @@
         <v>44</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>17</v>
@@ -2968,15 +2974,15 @@
         <v>44</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>17</v>
@@ -2985,15 +2991,15 @@
         <v>44</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>17</v>
@@ -3002,15 +3008,15 @@
         <v>44</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>17</v>
@@ -3019,15 +3025,15 @@
         <v>44</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>17</v>
@@ -3036,12 +3042,12 @@
         <v>44</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9" t="s">
@@ -3054,10 +3060,10 @@
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>17</v>
@@ -3066,15 +3072,15 @@
         <v>44</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>17</v>
@@ -3083,15 +3089,15 @@
         <v>44</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>17</v>
@@ -3100,15 +3106,15 @@
         <v>44</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>17</v>
@@ -3117,15 +3123,15 @@
         <v>44</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>17</v>
@@ -3134,15 +3140,15 @@
         <v>44</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>17</v>
@@ -3151,12 +3157,12 @@
         <v>44</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -3165,20 +3171,20 @@
     </row>
     <row r="83" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -3187,10 +3193,10 @@
     </row>
     <row r="85" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>10</v>
@@ -3202,25 +3208,25 @@
     </row>
     <row r="86" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>10</v>
@@ -3232,17 +3238,17 @@
     </row>
     <row r="88" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3250,7 +3256,7 @@
         <v>19</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -3260,10 +3266,10 @@
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -3271,10 +3277,10 @@
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -3285,7 +3291,7 @@
         <v>34</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -3296,7 +3302,7 @@
         <v>36</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -3307,7 +3313,7 @@
         <v>37</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -3315,10 +3321,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -3326,7 +3332,7 @@
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -3342,7 +3348,7 @@
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -3368,26 +3374,26 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B23:C23 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>16</v>
@@ -3396,36 +3402,36 @@
         <v>36</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3447,25 +3453,25 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B23:C23 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>16</v>
@@ -3474,36 +3480,36 @@
         <v>36</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3525,7 +3531,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="B23:C23 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3537,45 +3543,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
